--- a/All Transactions Types with Period Impacts.xlsx
+++ b/All Transactions Types with Period Impacts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irnz-my.sharepoint.com/personal/juanita_reece_ird_govt_nz/Documents/Documents/Juanita Reece/A WORK/YYY Previous releases/04 Release 4/TDS/Published/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irnz-my.sharepoint.com/personal/juanita_reece_ird_govt_nz/Documents/Documents/Juanita Reece/A WORK/YYY Previous releases/04 Release 4/TDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{8F26C117-5823-422D-905F-0625D39B2F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1647B2E-4C70-4692-8411-2D891FE2C917}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{9E2797ED-18E8-4E9C-A3D8-34DDC75F163D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5366EAE-9EA5-470B-ACE4-9B628D6C9DEC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$318</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$320</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4846" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4878" uniqueCount="1067">
   <si>
     <t>ADJAWO</t>
   </si>
@@ -3210,17 +3210,32 @@
     <t>Both</t>
   </si>
   <si>
-    <t>Yes, SLS</t>
-  </si>
-  <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>ROLCRD</t>
+  </si>
+  <si>
+    <t>Rolling credit</t>
+  </si>
+  <si>
+    <t>Generic credit used in Student Loans to fix rolling issues. Posted to accounts with ROLDBT to allow for the rolling balance to occur correctly.</t>
+  </si>
+  <si>
+    <t>ROLDBT</t>
+  </si>
+  <si>
+    <t>Rolling debit</t>
+  </si>
+  <si>
+    <t>Generic debit used in Student Loans to fix rolling issues. Posted to accounts with ROLCRD to allow for the rolling balance to occur correctly.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3232,6 +3247,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3252,12 +3274,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3280,11 +3302,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3298,10 +3387,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3374,24 +3484,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9491B43-3C67-4BC8-9B55-DC2814E7C4F5}" name="Table1" displayName="Table1" ref="B1:P318" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="B1:P318" xr:uid="{9A7802F5-EDAC-473C-B7F7-9AB4DE6CD68D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9491B43-3C67-4BC8-9B55-DC2814E7C4F5}" name="Table1" displayName="Table1" ref="B1:P320" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="B1:P320" xr:uid="{9A7802F5-EDAC-473C-B7F7-9AB4DE6CD68D}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{6D963DE9-57BC-4F32-AABB-A8AD63F14BCD}" name="Trans Type" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{30CADB19-E881-4CE7-8767-7FAEFC895BE0}" name="Internal Decode" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{DD99916B-EFE4-4C01-97D8-F6AC3F977F20}" name="myIR Decode" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A7D91A00-59F4-4B95-8A9B-F8273EF5E505}" name="Descripion" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{0B72BB12-690A-4574-B55A-AF9ABAC6D94D}" name="Category Code" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{B913A432-0EB6-4DE9-9F91-4CB60C55650F}" name="Category Description" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{8333E2DA-987F-4189-8AAD-3D5BEAAC291F}" name="Category Desc." dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{70CE4EA7-D9BD-4E09-A6CD-184550500615}" name="Is Reversal" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{E36C1950-857F-4E65-AB20-F19CBC91EC38}" name="Is Credit" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{1B884392-F4EA-4F47-9A22-C9FBE2C9C073}" name="Is Writeoff" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{710300B4-2022-4CAB-94AC-CFD234DCCB54}" name="Is Payment" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{5008BF72-3EDF-4BFD-BDF9-3C610E4CC424}" name="Is Return" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{A6C1A890-1419-40FC-A5EF-79DA535F7860}" name="Is Tax" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{27675384-4AF8-4C7A-B443-670AF9DE549E}" name="Impact" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{445E43E5-0AA8-4C74-9346-6A3299CF2D9E}" name="Assessment vs. Loan" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6D963DE9-57BC-4F32-AABB-A8AD63F14BCD}" name="Trans Type" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{30CADB19-E881-4CE7-8767-7FAEFC895BE0}" name="Internal Decode" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{DD99916B-EFE4-4C01-97D8-F6AC3F977F20}" name="myIR Decode" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{A7D91A00-59F4-4B95-8A9B-F8273EF5E505}" name="Descripion" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{0B72BB12-690A-4574-B55A-AF9ABAC6D94D}" name="Category Code" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B913A432-0EB6-4DE9-9F91-4CB60C55650F}" name="Category Description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{8333E2DA-987F-4189-8AAD-3D5BEAAC291F}" name="Category Desc." dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{70CE4EA7-D9BD-4E09-A6CD-184550500615}" name="Is Reversal" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{E36C1950-857F-4E65-AB20-F19CBC91EC38}" name="Is Credit" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{1B884392-F4EA-4F47-9A22-C9FBE2C9C073}" name="Is Writeoff" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{710300B4-2022-4CAB-94AC-CFD234DCCB54}" name="Is Payment" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{5008BF72-3EDF-4BFD-BDF9-3C610E4CC424}" name="Is Return" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{A6C1A890-1419-40FC-A5EF-79DA535F7860}" name="Is Tax" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{27675384-4AF8-4C7A-B443-670AF9DE549E}" name="Impact" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{445E43E5-0AA8-4C74-9346-6A3299CF2D9E}" name="Assessment vs. Loan" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3660,10 +3770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P318"/>
+  <dimension ref="A1:P320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C326" sqref="C326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7438,2785 +7548,2842 @@
       </c>
     </row>
     <row r="79" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B79" s="6" t="s">
+      <c r="A79" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="H79" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O79" s="6" t="s">
+      <c r="I79" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M79" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N79" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O79" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P79" s="6" t="s">
+      <c r="P79" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B80" s="6" t="s">
+      <c r="A80" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I80" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M80" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N80" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O80" s="6" t="s">
+      <c r="I80" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M80" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N80" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O80" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P80" s="6" t="s">
+      <c r="P80" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B81" s="1" t="s">
+    <row r="81" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O81" s="1" t="s">
+      <c r="I81" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O81" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="P81" s="10"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A82" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O82" s="1" t="s">
+      <c r="I82" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L82" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N82" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O82" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="P82" s="10"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A83" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H83" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O83" s="1" t="s">
+      <c r="I83" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M83" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N83" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O83" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="P83" s="10"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A84" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H84" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O84" s="1" t="s">
+      <c r="I84" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M84" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N84" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O84" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="P84" s="10"/>
+    </row>
+    <row r="85" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H85" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O85" s="1" t="s">
+      <c r="I85" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M85" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N85" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O85" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="P85" s="10"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A86" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O86" s="1" t="s">
+      <c r="I86" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L86" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M86" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N86" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O86" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="P86" s="10"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A87" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O87" s="1" t="s">
+      <c r="I87" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N87" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O87" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="P87" s="10"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A88" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O88" s="1" t="s">
+      <c r="I88" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L88" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M88" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N88" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O88" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="P88" s="10"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A89" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O89" s="1" t="s">
+      <c r="I89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O89" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B90" s="1" t="s">
+      <c r="P89" s="10"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A90" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O90" s="1" t="s">
+      <c r="I90" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L90" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M90" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N90" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O90" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="P90" s="10"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A91" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O91" s="1" t="s">
+      <c r="I91" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L91" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M91" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N91" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O91" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="P91" s="10"/>
+    </row>
+    <row r="92" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O92" s="1" t="s">
+      <c r="I92" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L92" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M92" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N92" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O92" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="P92" s="10"/>
+    </row>
+    <row r="93" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H93" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O93" s="1" t="s">
+      <c r="I93" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L93" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M93" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N93" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O93" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="P93" s="10"/>
+    </row>
+    <row r="94" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O94" s="1" t="s">
+      <c r="I94" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K94" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L94" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M94" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N94" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O94" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="P94" s="10"/>
+    </row>
+    <row r="95" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O95" s="1" t="s">
+      <c r="I95" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M95" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N95" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O95" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="P95" s="10"/>
+    </row>
+    <row r="96" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O96" s="1" t="s">
+      <c r="I96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O96" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="P96" s="10"/>
+    </row>
+    <row r="97" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O97" s="1" t="s">
+      <c r="I97" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L97" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M97" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N97" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O97" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="P97" s="10"/>
+    </row>
+    <row r="98" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H98" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O98" s="1" t="s">
+      <c r="I98" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L98" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M98" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N98" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O98" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="P98" s="10"/>
+    </row>
+    <row r="99" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O99" s="1" t="s">
+      <c r="I99" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J99" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L99" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M99" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N99" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O99" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="P99" s="10"/>
+    </row>
+    <row r="100" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O100" s="1" t="s">
+      <c r="I100" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L100" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M100" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N100" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O100" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="P100" s="10"/>
+    </row>
+    <row r="101" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O101" s="1" t="s">
+      <c r="I101" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L101" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M101" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N101" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O101" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="P101" s="10"/>
+    </row>
+    <row r="102" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G102" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O102" s="1" t="s">
+      <c r="I102" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L102" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M102" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N102" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O102" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="P102" s="10"/>
+    </row>
+    <row r="103" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="H103" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O103" s="1" t="s">
+      <c r="I103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O103" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="P103" s="10"/>
+    </row>
+    <row r="104" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H104" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O104" s="1" t="s">
+      <c r="I104" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L104" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M104" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N104" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O104" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="P104" s="10"/>
+    </row>
+    <row r="105" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H105" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O105" s="1" t="s">
+      <c r="I105" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L105" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M105" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N105" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O105" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="P105" s="10"/>
+    </row>
+    <row r="106" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G106" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H106" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O106" s="1" t="s">
+      <c r="I106" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L106" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M106" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N106" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O106" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="P106" s="10"/>
+    </row>
+    <row r="107" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A107" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="H107" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O107" s="1" t="s">
+      <c r="I107" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J107" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L107" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M107" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N107" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O107" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="P107" s="10"/>
+    </row>
+    <row r="108" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G108" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="H108" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O108" s="1" t="s">
+      <c r="I108" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L108" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M108" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N108" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O108" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="P108" s="10"/>
+    </row>
+    <row r="109" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H109" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O109" s="1" t="s">
+      <c r="I109" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M109" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N109" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O109" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="P109" s="10"/>
+    </row>
+    <row r="110" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G110" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="H110" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O110" s="1" t="s">
+      <c r="I110" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M110" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N110" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O110" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="P110" s="10"/>
+    </row>
+    <row r="111" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H111" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O111" s="1" t="s">
+      <c r="I111" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L111" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M111" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N111" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O111" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="P111" s="10"/>
+    </row>
+    <row r="112" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="H112" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O112" s="1" t="s">
+      <c r="I112" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M112" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N112" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O112" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="P112" s="10"/>
+    </row>
+    <row r="113" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H113" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O113" s="1" t="s">
+      <c r="I113" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L113" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M113" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N113" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O113" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A114" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B114" s="1" t="s">
+      <c r="P113" s="10"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A114" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="H114" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O114" s="1" t="s">
+      <c r="I114" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J114" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L114" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M114" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N114" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O114" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B115" s="1" t="s">
+      <c r="P114" s="10"/>
+    </row>
+    <row r="115" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O115" s="1" t="s">
+      <c r="I115" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J115" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L115" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M115" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N115" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O115" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="P115" s="10"/>
+    </row>
+    <row r="116" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A116" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="H116" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O116" s="1" t="s">
+      <c r="I116" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L116" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M116" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N116" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O116" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="P116" s="10"/>
+    </row>
+    <row r="117" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H117" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I117" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O117" s="1" t="s">
+      <c r="I117" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L117" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M117" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N117" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O117" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="P117" s="10"/>
+    </row>
+    <row r="118" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A118" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G118" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="H118" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O118" s="1" t="s">
+      <c r="I118" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L118" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M118" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N118" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O118" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="P118" s="10"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A119" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G119" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="H119" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O119" s="1" t="s">
+      <c r="I119" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L119" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M119" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N119" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O119" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B120" s="1" t="s">
+      <c r="P119" s="10"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A120" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G120" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H120" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O120" s="1" t="s">
+      <c r="I120" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L120" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M120" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N120" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O120" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="P120" s="10"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A121" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="H121" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O121" s="1" t="s">
+      <c r="I121" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K121" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L121" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M121" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N121" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O121" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="P121" s="10"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A122" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="H122" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O122" s="1" t="s">
+      <c r="I122" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L122" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M122" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N122" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O122" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B123" s="1" t="s">
+      <c r="P122" s="10"/>
+    </row>
+    <row r="123" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A123" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G123" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="H123" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O123" s="1" t="s">
+      <c r="I123" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K123" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L123" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M123" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N123" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O123" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="P123" s="10"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A124" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G124" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="H124" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="I124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O124" s="1" t="s">
+      <c r="I124" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L124" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M124" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N124" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O124" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B125" s="1" t="s">
+      <c r="P124" s="10"/>
+    </row>
+    <row r="125" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A125" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G125" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H125" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O125" s="1" t="s">
+      <c r="I125" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J125" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K125" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L125" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M125" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N125" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O125" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B126" s="1" t="s">
+      <c r="P125" s="10"/>
+    </row>
+    <row r="126" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A126" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G126" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H126" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O126" s="1" t="s">
+      <c r="I126" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K126" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L126" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M126" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N126" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O126" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A127" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="P126" s="10"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A127" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G127" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="H127" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O127" s="1" t="s">
+      <c r="I127" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K127" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L127" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M127" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N127" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O127" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A128" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="P127" s="10"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A128" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="H128" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O128" s="1" t="s">
+      <c r="I128" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L128" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M128" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N128" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O128" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A129" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B129" s="1" t="s">
+      <c r="P128" s="10"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A129" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G129" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="H129" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O129" s="1" t="s">
+      <c r="I129" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K129" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L129" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M129" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N129" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O129" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A130" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B130" s="1" t="s">
+      <c r="P129" s="10"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A130" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G130" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="H130" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="I130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O130" s="1" t="s">
+      <c r="I130" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K130" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L130" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M130" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N130" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O130" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B131" s="1" t="s">
+      <c r="P130" s="10"/>
+    </row>
+    <row r="131" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A131" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G131" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="H131" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="I131" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O131" s="1" t="s">
+      <c r="I131" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K131" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L131" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M131" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N131" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O131" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A132" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="P131" s="10"/>
+    </row>
+    <row r="132" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A132" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G132" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="H132" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="I132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O132" s="1" t="s">
+      <c r="I132" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K132" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L132" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M132" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N132" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O132" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A133" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B133" s="1" t="s">
+      <c r="P132" s="10"/>
+    </row>
+    <row r="133" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A133" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B133" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G133" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="H133" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="I133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O133" s="1" t="s">
+      <c r="I133" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J133" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K133" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L133" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M133" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N133" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O133" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A134" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B134" s="1" t="s">
+      <c r="P133" s="10"/>
+    </row>
+    <row r="134" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A134" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B134" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G134" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="H134" s="1" t="s">
+      <c r="H134" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="I134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O134" s="1" t="s">
+      <c r="I134" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J134" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K134" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L134" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M134" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N134" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O134" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A135" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B135" s="1" t="s">
+      <c r="P134" s="10"/>
+    </row>
+    <row r="135" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A135" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G135" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="H135" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="I135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O135" s="1" t="s">
+      <c r="I135" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J135" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K135" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L135" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M135" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N135" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O135" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A136" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B136" s="6" t="s">
+      <c r="P135" s="10"/>
+    </row>
+    <row r="136" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A136" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E136" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="H136" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="I136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O136" s="1" t="s">
+      <c r="I136" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J136" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K136" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L136" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M136" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N136" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O136" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A137" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B137" s="6" t="s">
+      <c r="P136" s="10"/>
+    </row>
+    <row r="137" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E137" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G137" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="H137" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="I137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O137" s="1" t="s">
+      <c r="I137" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K137" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L137" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M137" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N137" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O137" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="P137" s="13"/>
+    </row>
+    <row r="138" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>1056</v>
       </c>
@@ -10263,7 +10430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>1056</v>
       </c>
@@ -10310,7 +10477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>1056</v>
       </c>
@@ -10357,7 +10524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>1056</v>
       </c>
@@ -10404,7 +10571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>1056</v>
       </c>
@@ -10451,7 +10618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>1056</v>
       </c>
@@ -10498,7 +10665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>1056</v>
       </c>
@@ -15517,114 +15684,120 @@
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A250" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B250" s="1" t="s">
+      <c r="A250" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E250" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G250" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H250" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I250" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J250" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K250" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L250" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M250" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N250" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O250" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P250" s="8" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A251" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E251" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F251" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H251" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I251" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J251" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K251" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L251" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M251" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N251" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O251" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P251" s="8" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A252" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="E250" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H250" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I250" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J250" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K250" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L250" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M250" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O250" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A251" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H251" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I251" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J251" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K251" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L251" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M251" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O251" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A252" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>844</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>4</v>
@@ -15639,7 +15812,7 @@
         <v>7</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K252" s="1" t="s">
         <v>7</v>
@@ -15648,7 +15821,7 @@
         <v>7</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N252" s="1" t="s">
         <v>8</v>
@@ -15657,21 +15830,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>4</v>
@@ -15695,7 +15868,7 @@
         <v>7</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N253" s="1" t="s">
         <v>8</v>
@@ -15709,16 +15882,16 @@
         <v>1056</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>4</v>
@@ -15751,21 +15924,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>4</v>
@@ -15780,7 +15953,7 @@
         <v>7</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K255" s="1" t="s">
         <v>7</v>
@@ -15798,21 +15971,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>4</v>
@@ -15850,16 +16023,16 @@
         <v>1056</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>175</v>
+        <v>855</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>4</v>
@@ -15886,27 +16059,27 @@
         <v>8</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>4</v>
@@ -15939,21 +16112,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>868</v>
+        <v>175</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>4</v>
@@ -15991,16 +16164,16 @@
         <v>1056</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>4</v>
@@ -16038,16 +16211,16 @@
         <v>1056</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="C261" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="E261" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>4</v>
@@ -16062,7 +16235,7 @@
         <v>7</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K261" s="1" t="s">
         <v>7</v>
@@ -16074,7 +16247,7 @@
         <v>8</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>32</v>
@@ -16085,16 +16258,16 @@
         <v>1056</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>4</v>
@@ -16109,7 +16282,7 @@
         <v>7</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>7</v>
@@ -16121,36 +16294,36 @@
         <v>8</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>878</v>
+        <v>175</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>601</v>
+        <v>4</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>602</v>
+        <v>5</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>603</v>
+        <v>6</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>7</v>
@@ -16165,45 +16338,45 @@
         <v>7</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O263" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>601</v>
+        <v>4</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>602</v>
+        <v>5</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>603</v>
+        <v>6</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K264" s="1" t="s">
         <v>7</v>
@@ -16212,13 +16385,13 @@
         <v>7</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N264" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O264" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="265" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
@@ -16226,7 +16399,7 @@
         <v>1056</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>878</v>
@@ -16268,115 +16441,115 @@
         <v>63</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M266" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N266" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O266" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A267" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O267" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A268" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="E266" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H266" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I266" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J266" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K266" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L266" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M266" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N266" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O266" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A267" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G267" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H267" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I267" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J267" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K267" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L267" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M267" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N267" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O267" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A268" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>892</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>4</v>
@@ -16414,16 +16587,16 @@
         <v>1056</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>175</v>
+        <v>888</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>4</v>
@@ -16438,7 +16611,7 @@
         <v>7</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K269" s="1" t="s">
         <v>7</v>
@@ -16455,25 +16628,22 @@
       <c r="O269" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P269" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="270" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>175</v>
+        <v>888</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>4</v>
@@ -16506,12 +16676,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>894</v>
@@ -16520,7 +16690,7 @@
         <v>175</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>4</v>
@@ -16556,21 +16726,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>902</v>
+        <v>175</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>4</v>
@@ -16585,7 +16755,7 @@
         <v>7</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K272" s="1" t="s">
         <v>7</v>
@@ -16594,30 +16764,30 @@
         <v>7</v>
       </c>
       <c r="M272" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>906</v>
+        <v>175</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>4</v>
@@ -16641,39 +16811,42 @@
         <v>7</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P273" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>241</v>
+        <v>901</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>241</v>
+        <v>902</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>7</v>
@@ -16682,7 +16855,7 @@
         <v>8</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L274" s="1" t="s">
         <v>7</v>
@@ -16694,7 +16867,7 @@
         <v>7</v>
       </c>
       <c r="O274" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="275" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -16702,16 +16875,16 @@
         <v>1056</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>91</v>
+        <v>905</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>91</v>
+        <v>906</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>4</v>
@@ -16726,7 +16899,7 @@
         <v>7</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K275" s="1" t="s">
         <v>7</v>
@@ -16735,16 +16908,13 @@
         <v>7</v>
       </c>
       <c r="M275" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N275" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O275" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P275" s="1" t="s">
-        <v>1058</v>
+        <v>32</v>
       </c>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.35">
@@ -16752,16 +16922,16 @@
         <v>1056</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>913</v>
+        <v>241</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>913</v>
+        <v>241</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>14</v>
@@ -16776,10 +16946,10 @@
         <v>7</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L276" s="1" t="s">
         <v>7</v>
@@ -16793,34 +16963,31 @@
       <c r="O276" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P276" s="1" t="s">
-        <v>1058</v>
-      </c>
     </row>
     <row r="277" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>7</v>
@@ -16835,7 +17002,7 @@
         <v>7</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N277" s="1" t="s">
         <v>7</v>
@@ -16844,39 +17011,39 @@
         <v>9</v>
       </c>
       <c r="P277" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K278" s="1" t="s">
         <v>7</v>
@@ -16897,36 +17064,36 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>921</v>
+        <v>95</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>921</v>
+        <v>95</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K279" s="1" t="s">
         <v>7</v>
@@ -16944,7 +17111,7 @@
         <v>9</v>
       </c>
       <c r="P279" s="1" t="s">
-        <v>1058</v>
+        <v>175</v>
       </c>
     </row>
     <row r="280" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -16952,25 +17119,25 @@
         <v>1056</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>7</v>
@@ -16985,16 +17152,16 @@
         <v>7</v>
       </c>
       <c r="M280" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N280" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O280" s="1" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="P280" s="1" t="s">
-        <v>175</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.35">
@@ -17002,31 +17169,31 @@
         <v>1056</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>7</v>
@@ -17035,13 +17202,13 @@
         <v>7</v>
       </c>
       <c r="M281" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N281" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O281" s="1" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="P281" s="1" t="s">
         <v>1058</v>
@@ -17052,16 +17219,16 @@
         <v>1056</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>4</v>
@@ -17102,16 +17269,16 @@
         <v>1056</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>4</v>
@@ -17144,7 +17311,7 @@
         <v>63</v>
       </c>
       <c r="P283" s="1" t="s">
-        <v>175</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="284" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -17152,25 +17319,25 @@
         <v>1056</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>7</v>
@@ -17185,16 +17352,16 @@
         <v>7</v>
       </c>
       <c r="M284" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N284" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O284" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="P284" s="1" t="s">
-        <v>1058</v>
+        <v>175</v>
       </c>
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.35">
@@ -17202,31 +17369,31 @@
         <v>1056</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K285" s="1" t="s">
         <v>7</v>
@@ -17235,16 +17402,16 @@
         <v>7</v>
       </c>
       <c r="M285" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N285" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O285" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="P285" s="1" t="s">
-        <v>1058</v>
+        <v>175</v>
       </c>
     </row>
     <row r="286" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -17252,16 +17419,16 @@
         <v>1056</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>27</v>
@@ -17302,16 +17469,16 @@
         <v>1056</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>27</v>
@@ -17347,21 +17514,21 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>164</v>
+        <v>945</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>27</v>
@@ -17402,16 +17569,16 @@
         <v>1056</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>27</v>
@@ -17452,16 +17619,16 @@
         <v>1056</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>958</v>
+        <v>164</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>27</v>
@@ -17502,16 +17669,16 @@
         <v>1056</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>27</v>
@@ -17547,21 +17714,21 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>27</v>
@@ -17597,21 +17764,21 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>27</v>
@@ -17647,21 +17814,21 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>252</v>
+        <v>964</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>252</v>
+        <v>964</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>27</v>
@@ -17697,21 +17864,21 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>27</v>
@@ -17752,16 +17919,16 @@
         <v>1056</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>974</v>
+        <v>252</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>974</v>
+        <v>252</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>27</v>
@@ -17794,7 +17961,7 @@
         <v>9</v>
       </c>
       <c r="P296" s="1" t="s">
-        <v>175</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.35">
@@ -17802,16 +17969,16 @@
         <v>1056</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>27</v>
@@ -17852,16 +18019,16 @@
         <v>1056</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>209</v>
+        <v>974</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>209</v>
+        <v>974</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>27</v>
@@ -17894,7 +18061,7 @@
         <v>9</v>
       </c>
       <c r="P298" s="1" t="s">
-        <v>1058</v>
+        <v>175</v>
       </c>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.35">
@@ -17902,16 +18069,16 @@
         <v>1056</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>213</v>
+        <v>977</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>213</v>
+        <v>977</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>27</v>
@@ -17947,21 +18114,21 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>984</v>
+        <v>209</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>984</v>
+        <v>209</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>27</v>
@@ -17997,21 +18164,21 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>987</v>
+        <v>213</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>987</v>
+        <v>213</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>27</v>
@@ -18047,21 +18214,21 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>27</v>
@@ -18097,21 +18264,21 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>27</v>
@@ -18152,16 +18319,16 @@
         <v>1056</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>27</v>
@@ -18202,16 +18369,16 @@
         <v>1056</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>27</v>
@@ -18247,21 +18414,21 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>27</v>
@@ -18302,16 +18469,16 @@
         <v>1056</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>27</v>
@@ -18341,24 +18508,27 @@
         <v>7</v>
       </c>
       <c r="O307" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="P307" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>615</v>
+        <v>1002</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>175</v>
+        <v>1002</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>27</v>
@@ -18373,7 +18543,7 @@
         <v>7</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K308" s="1" t="s">
         <v>7</v>
@@ -18388,7 +18558,10 @@
         <v>7</v>
       </c>
       <c r="O308" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="P308" s="1" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.35">
@@ -18396,175 +18569,175 @@
         <v>1056</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K309" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M309" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N309" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O309" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A310" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K310" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M310" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N310" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O310" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A311" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="C311" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="D309" s="1" t="s">
+      <c r="D311" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="E309" s="1" t="s">
+      <c r="E311" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="F309" s="1" t="s">
+      <c r="F311" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G309" s="1" t="s">
+      <c r="G311" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H309" s="1" t="s">
+      <c r="H311" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I309" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J309" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K309" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L309" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M309" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N309" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O309" s="1" t="s">
+      <c r="I311" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L311" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M311" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N311" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O311" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A310" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B310" s="1" t="s">
+    <row r="312" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A312" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="C312" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="D312" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="E310" s="1" t="s">
+      <c r="E312" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="F310" s="1" t="s">
+      <c r="F312" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G310" s="1" t="s">
+      <c r="G312" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H310" s="1" t="s">
+      <c r="H312" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I310" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J310" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K310" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L310" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M310" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N310" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O310" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="311" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A311" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H311" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="I311" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J311" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K311" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L311" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M311" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N311" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O311" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A312" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G312" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H312" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I312" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L312" s="1" t="s">
         <v>7</v>
@@ -18579,30 +18752,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>2</v>
+        <v>1018</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>14</v>
+        <v>478</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>15</v>
+        <v>479</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="I313" s="1" t="s">
         <v>7</v>
@@ -18611,7 +18784,7 @@
         <v>8</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L313" s="1" t="s">
         <v>7</v>
@@ -18623,7 +18796,7 @@
         <v>7</v>
       </c>
       <c r="O313" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.35">
@@ -18631,16 +18804,16 @@
         <v>1056</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>2</v>
+        <v>1021</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>14</v>
@@ -18678,119 +18851,119 @@
         <v>1056</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L315" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M315" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N315" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O315" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A316" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K316" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L316" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M316" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N316" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O316" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A317" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="C317" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="D317" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="E315" s="1" t="s">
+      <c r="E317" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="F315" s="1" t="s">
+      <c r="F317" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G315" s="1" t="s">
+      <c r="G317" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H315" s="1" t="s">
+      <c r="H317" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I315" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J315" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K315" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L315" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M315" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N315" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O315" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="316" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A316" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F316" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G316" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H316" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="I316" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J316" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K316" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L316" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M316" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N316" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O316" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="317" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A317" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G317" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H317" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="I317" s="1" t="s">
         <v>7</v>
@@ -18819,16 +18992,16 @@
         <v>1056</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>66</v>
+        <v>1033</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>478</v>
@@ -18843,7 +19016,7 @@
         <v>7</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K318" s="1" t="s">
         <v>7</v>
@@ -18858,11 +19031,105 @@
         <v>7</v>
       </c>
       <c r="O318" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A319" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K319" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L319" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M319" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N319" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O319" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A320" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K320" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L320" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M320" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N320" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O320" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A318" xr:uid="{1563F661-C1C8-4F15-876E-0BB2D6CCD684}"/>
+  <autoFilter ref="A1:A320" xr:uid="{1563F661-C1C8-4F15-876E-0BB2D6CCD684}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
@@ -18875,12 +19142,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19107,15 +19371,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AA8CC11-9736-48D7-B685-F2E7B6FA6C1D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0617DBBE-4C4D-4403-B4DC-0DBF1E03D1DE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19140,10 +19408,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0617DBBE-4C4D-4403-B4DC-0DBF1E03D1DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AA8CC11-9736-48D7-B685-F2E7B6FA6C1D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>